--- a/templates/AutomationOrg/CRUD-Scrap Reason Code.xlsx
+++ b/templates/AutomationOrg/CRUD-Scrap Reason Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkakade\Provar\Workspace\System Setup\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10D8721-271F-4324-957E-5B122F0FFF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1BCC39-31EA-4369-8FD3-FF8375325231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="3024" windowWidth="15912" windowHeight="8964" activeTab="1" xr2:uid="{BE7670E5-4B32-490D-B039-CBA31C07B7AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE7670E5-4B32-490D-B039-CBA31C07B7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Create_ScrapReasonCode" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>Scrap Reason Code</t>
   </si>
   <si>
-    <t>Scrap Reason Code 1</t>
+    <t>Scrap Reason Code Update</t>
   </si>
 </sst>
 </file>
@@ -436,10 +436,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
